--- a/marks.xlsx
+++ b/marks.xlsx
@@ -1,102 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\_GitHub\Repos\Test Python01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F6051E-F2E4-4EA9-983F-10E4A06FDB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="23892" yWindow="2352" windowWidth="28836" windowHeight="7836" xr2:uid="{EC972997-7E29-4A9E-AF04-9CFF9ADF5985}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3345" yWindow="1650" windowWidth="20445" windowHeight="10740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Class101" sheetId="1" r:id="rId1"/>
+    <sheet name="Class101" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>Students</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Karl</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Geography</t>
-  </si>
-  <si>
-    <t>Maths</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -115,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -429,177 +419,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BAA84F-CA64-4004-B74B-02E90E81131A}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Geography</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Maths</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Physics</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>23</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>65</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>64</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>69</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>68</v>
       </c>
       <c r="H2">
         <f>SUM(C2:G2)</f>
-        <v>289</v>
+        <v/>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>32</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>65</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>36</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>26</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>85</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H6" si="0">SUM(C3:G3)</f>
-        <v>244</v>
+        <f>SUM(C3:G3)</f>
+        <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>53</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>41</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>35</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>162</v>
+        <f>SUM(C4:G4)</f>
+        <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>74</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>80</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>54</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>42</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>29</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>279</v>
+        <f>SUM(C5:G5)</f>
+        <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>67</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>76</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>17</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>76</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>10</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>246</v>
+        <f>SUM(C6:G6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hello There!</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Zustandsbeschreibung</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>
 </file>